--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/murder_pro.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/murder_pro.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4</t>
   </si>
   <si>
     <t>arg33338</t>
@@ -42,7 +42,7 @@
     <t>arg33304</t>
   </si>
   <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
   </si>
   <si>
     <t>arg33261</t>
@@ -54,7 +54,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
   </si>
   <si>
     <t>at woul</t>
@@ -99,7 +99,7 @@
     <t>arg33254</t>
   </si>
   <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arg33370</t>
@@ -108,13 +108,13 @@
     <t>arg33345</t>
   </si>
   <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
   </si>
   <si>
     <t>arg33224</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>ther pe</t>
@@ -153,13 +153,13 @@
     <t>arg33366</t>
   </si>
   <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
   </si>
   <si>
     <t>arg33339</t>
   </si>
   <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
   </si>
   <si>
     <t>arg33230</t>
@@ -168,28 +168,28 @@
     <t>arg33348</t>
   </si>
   <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
   </si>
   <si>
     <t>arg33312</t>
   </si>
   <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg33367</t>
   </si>
   <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
   </si>
   <si>
     <t>arg33223</t>
@@ -198,7 +198,7 @@
     <t>arg33293</t>
   </si>
   <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
   </si>
   <si>
     <t>arg33303</t>
@@ -207,10 +207,10 @@
     <t>arg33269</t>
   </si>
   <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>ith the</t>
@@ -246,19 +246,19 @@
     <t>the rest of their lives.</t>
   </si>
   <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>arg33284</t>
   </si>
   <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>arg33349</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
   </si>
   <si>
     <t>re not</t>
@@ -294,31 +294,31 @@
     <t>I wouldn't fall in love with a murderer.</t>
   </si>
   <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
   </si>
   <si>
     <t>arg33323</t>
   </si>
   <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>arg33318</t>
   </si>
   <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
   </si>
   <si>
     <t>arg33280</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
   </si>
   <si>
     <t>you.</t>
@@ -327,13 +327,13 @@
     <t>arg33344</t>
   </si>
   <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4</t>
   </si>
   <si>
     <t>in the</t>
@@ -369,22 +369,22 @@
     <t>ow do i know that later on in life i might be a victim.</t>
   </si>
   <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>t if he</t>
@@ -423,7 +423,7 @@
     <t>too.</t>
   </si>
   <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>e there</t>
@@ -456,7 +456,7 @@
     <t>hey will have to live with the guilt and/or the fear of being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>little</t>
@@ -489,10 +489,10 @@
     <t>live with the guilt and/or the fear of being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
+    <t>18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
   </si>
   <si>
     <t>aught t</t>
@@ -537,22 +537,22 @@
     <t>arg33372</t>
   </si>
   <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9</t>
   </si>
   <si>
     <t>arg33289</t>
   </si>
   <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
   </si>
   <si>
     <t>se in t</t>
@@ -588,22 +588,22 @@
     <t>not make him clean and innocent.</t>
   </si>
   <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
   </si>
   <si>
     <t>arg33332</t>
   </si>
   <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>d or ju</t>
@@ -639,13 +639,13 @@
     <t>would turn them in because someone that's that cold could kill me.</t>
   </si>
   <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>much w</t>
@@ -672,13 +672,13 @@
     <t>arg33221</t>
   </si>
   <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
   </si>
   <si>
     <t>arg33245</t>
   </si>
   <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>er, so</t>
@@ -708,16 +708,16 @@
     <t>that makes my life easier.</t>
   </si>
   <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
   </si>
   <si>
     <t>arg33282</t>
   </si>
   <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>for pa</t>
@@ -753,25 +753,25 @@
     <t>th the guilt and/or the fear of being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
   </si>
   <si>
     <t>arg33342</t>
   </si>
   <si>
-    <t>202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
+    <t>19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>ebody e</t>
@@ -810,13 +810,13 @@
     <t>more, you just see them as a bad person, and they could be crazy enough to do something to you.</t>
   </si>
   <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
   </si>
   <si>
     <t>when th</t>
@@ -855,52 +855,52 @@
     <t>iliating with a crime scene or even if your own life is in danger. So from these reasons I would turn my spouse in.</t>
   </si>
   <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>t be tr</t>
@@ -936,7 +936,7 @@
     <t>nderstand that having to live in hiding is basically the same as being in prison except much worse since there would be little chance for parole since they will have to live with the guilt and/or the fear of being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
   </si>
   <si>
     <t>ldn't f</t>
@@ -969,19 +969,19 @@
     <t>or sleeping next to her. I wouldn't be able to sleep or think right for months, maybe years.</t>
   </si>
   <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
   </si>
   <si>
     <t>mily th</t>
@@ -1005,16 +1005,16 @@
     <t>ons.</t>
   </si>
   <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>being</t>
@@ -1035,13 +1035,13 @@
     <t>ves.</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
   </si>
   <si>
     <t>her to</t>
@@ -1071,7 +1071,7 @@
     <t>ould tell but then again i wouldn't.</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
   </si>
   <si>
     <t>also h</t>
@@ -1104,154 +1104,154 @@
     <t>elling a lie to me and maybe can kill me for someone else in the future.so Just by confiding to me does not make him clean and innocent.</t>
   </si>
   <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
   </si>
   <si>
     <t>ught. P</t>
@@ -1287,73 +1287,73 @@
     <t>d be too crazy for me so therefore I would break up with her.</t>
   </si>
   <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
   </si>
   <si>
     <t>or wha</t>
@@ -1389,10 +1389,10 @@
     <t>tells me, I wil call the police, just in case she either goes on another killing spree or decides to kill me</t>
   </si>
   <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>take or</t>
@@ -1401,88 +1401,88 @@
     <t>what.</t>
   </si>
   <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
   </si>
   <si>
     <t>ues eve</t>
@@ -1509,10 +1509,10 @@
     <t>to talk to someone.</t>
   </si>
   <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>rse sin</t>
@@ -1545,31 +1545,31 @@
     <t>since they will have to live with the guilt and/or the fear of being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
   </si>
   <si>
     <t>innocen</t>
   </si>
   <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>about</t>
@@ -1599,13 +1599,13 @@
     <t>rn him in just because I would be afraid to leave with a person like that, and also what if he thinks I will say something and kills me too.</t>
   </si>
   <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>r spous</t>
@@ -1635,16 +1635,16 @@
     <t>er never telling anyone, that makes my life easier.</t>
   </si>
   <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>kills m</t>
@@ -1653,7 +1653,7 @@
     <t>e too.</t>
   </si>
   <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>ause so</t>
@@ -1677,7 +1677,7 @@
     <t>ll me.</t>
   </si>
   <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0</t>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06</t>
   </si>
   <si>
     <t>to kno</t>
@@ -1710,13 +1710,13 @@
     <t>allow my self to rest until I knew. Sometimes in life their is more to worry about than yourself.</t>
   </si>
   <si>
-    <t>305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>akes my</t>
@@ -1731,22 +1731,22 @@
     <t>.</t>
   </si>
   <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
   </si>
   <si>
     <t>right</t>
@@ -1767,7 +1767,7 @@
     <t>s.</t>
   </si>
   <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>lp that</t>
@@ -1806,7 +1806,7 @@
     <t>ime as well, and I'm not going to jail.</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>he just</t>
@@ -1830,19 +1830,19 @@
     <t>ould turn him in because love may be strong but it can also be blind. I would not want to be married to a murderer because what if one day he decided to kill me?</t>
   </si>
   <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>her nev</t>
@@ -1872,46 +1872,46 @@
     <t>er.</t>
   </si>
   <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6</t>
+  </si>
+  <si>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
   </si>
   <si>
     <t>in dan</t>
@@ -1938,7 +1938,7 @@
     <t>spouse in.</t>
   </si>
   <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0</t>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47</t>
   </si>
   <si>
     <t>wasn't</t>
@@ -1968,25 +1968,25 @@
     <t>oint is that I wouldn't want to live under the same roof with a woman that could possibly be schizophrenic.</t>
   </si>
   <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>st of t</t>
@@ -1998,28 +1998,28 @@
     <t>ives</t>
   </si>
   <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
+  </si>
+  <si>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
   </si>
   <si>
     <t>in my</t>
@@ -2052,10 +2052,10 @@
     <t>nd they should pay for it. No one is above the law basicly.</t>
   </si>
   <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>I would</t>
@@ -2091,10 +2091,10 @@
     <t>t, and also what if he thinks I will say something and kills me too.</t>
   </si>
   <si>
-    <t>202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
-  </si>
-  <si>
-    <t>594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
+  </si>
+  <si>
+    <t>34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>e, beca</t>
@@ -2127,37 +2127,37 @@
     <t>n her in, someone eventually would find out about it, and I could be arrested too because of not telling. But it would be sad because she's your spouse, and you love her, so I rather preffer her never telling anyone, that makes my life easier.</t>
   </si>
   <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
   </si>
   <si>
     <t>h her.</t>
   </si>
   <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>383,0.0,10.72,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.4,0.35,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>10.43,5.25,1.13,2.18,0.52,0.0,10.72,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.16,0.0,0.23,0.03,0.03,0.21,0.0,0.0,0.0,0.0,10.06,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>dislik</t>
@@ -2184,28 +2184,28 @@
     <t>in because someone that's that cold could kill me.</t>
   </si>
   <si>
-    <t>314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
   </si>
   <si>
     <t>me so i</t>
@@ -2232,19 +2232,19 @@
     <t>uldn't.</t>
   </si>
   <si>
-    <t>305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
+  </si>
+  <si>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>. If th</t>
@@ -2268,10 +2268,10 @@
     <t>ney, objects and or just a pure disliking or a person then yes I would turn them in because someone that's that cold could kill me.</t>
   </si>
   <si>
-    <t>301,0.67,9.7,0.0,0.05,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>21.67,4.63,1.01,0.94,1.08,0.67,9.7,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.09,0.06,0.2,0.08,0.08,0.17,0.0,0.0,0.0,0.0,10.4,19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>g anyon</t>
@@ -2289,55 +2289,55 @@
     <t>asi</t>
   </si>
   <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,314,0.67,10.38,0.0,0.02,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,22.0,4.76,1.03,0.94,1.1,0.67,10.38,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.05,0.21,0.05,0.05,0.15,0.0,0.0,0.0,0.0,10.79</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
   </si>
   <si>
     <t>ll me</t>
   </si>
   <si>
-    <t>176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27</t>
   </si>
   <si>
     <t>rson th</t>
@@ -2370,31 +2370,31 @@
     <t>is not worth the risk of you getting caught for not telling what you know.</t>
   </si>
   <si>
-    <t>212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>325,0.5,9.44,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.0,10.34,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.04,0.0,354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,305,2.0,11.15,0.0,0.02,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.0</t>
-  </si>
-  <si>
-    <t>280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,594,0.67,15.3,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.17,0.14</t>
+    <t>21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>17.0,4.78,1.06,1.25,0.85,0.5,9.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.03,0.28,0.07,0.07,0.18,0.0,0.0,0.0,0.0,16.0,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>13.4,5.04,1.04,1.56,0.67,0.0,10.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.1,0.27,0.01,0.01,0.09,0.0,0.0,0.0,0.0,7.95,24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,65.0,4.69,1.01,0.31,3.24,2.0,11.15,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.15,0.03,0.2,0.03,0.03,0.18,0.0,0.0,0.0,0.0,8.0</t>
+  </si>
+  <si>
+    <t>14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9,34.0,5.82,1.59,0.94,1.69,0.67,15.3,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.17,0.03,0.03,0.05,0.04,0.08,0.14,0.14,3.52</t>
   </si>
   <si>
     <t>l have</t>
@@ -2415,7 +2415,7 @@
     <t>being caught for the rest of their lives.</t>
   </si>
   <si>
-    <t>553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0,268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14</t>
+    <t>27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57,26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56</t>
   </si>
   <si>
     <t>and wan</t>
@@ -2433,7 +2433,7 @@
     <t>ith it</t>
   </si>
   <si>
-    <t>423,0.6,11.6,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.09,0.14,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>16.6,5.1,1.29,1.56,0.83,0.6,11.6,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.1,0.25,0.04,0.04,0.18,0.01,0.08,0.14,0.14,7.69,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>ecause</t>
@@ -2457,10 +2457,10 @@
     <t>rather preffer her never telling anyone, that makes my life easier.</t>
   </si>
   <si>
-    <t>202,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.04,0.14,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
+    <t>19.0,5.32,0.59,0.62,0.95,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.21,0.11,0.11,0.13,0.05,0.17,0.14,0.14,12.88,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>like t</t>
@@ -2493,70 +2493,70 @@
     <t>something and kills me too.</t>
   </si>
   <si>
-    <t>382,1.0,12.71,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.4,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.5,12.91,0.0,0.06,1.0,0.0,0.0,0.0,0.15,0.15,0.1,0.13,0.14,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>354,0.67,9.89,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.09,0.0,181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0,280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,210,1.0,10.04,0.0,0.05,2.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0,281,0.0,9.91,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,176,2.0,10.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>234,0.5,11.02,0.0,0.04,1.0,0.0,0.06,0.0,0.15,0.15,0.15,0.04,0.0,339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14</t>
-  </si>
-  <si>
-    <t>348,0.33,12.1,0.0,0.01,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.04,0.0,282,2.5,10.5,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>139,0.25,10.75,0.0,0.12,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,280,0.25,10.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>339,0.5,11.31,0.0,0.03,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.04,0.14,394,0.0,12.56,0.0,0.03,0.75,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.14</t>
-  </si>
-  <si>
-    <t>307,0.33,13.18,0.0,0.05,1.0,0.0,0.02,0.0,0.1,0.25,0.25,0.0,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>490,1.0,11.36,0.0,0.0,1.0,0.0,0.01,0.0,0.15,0.25,0.2,0.04,0.0,265,0.25,11.82,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>407,2.0,11.39,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.4,0.0,0.0,361,0.33,11.74,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.4,0.4,0.04,0.14</t>
-  </si>
-  <si>
-    <t>181,0.0,13.26,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.2,0.25,0.0,0.0,345,0.25,11.77,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,10.97,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.0,0.0,489,0.83,11.94,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>36.5,5.23,1.13,0.62,1.82,1.0,12.71,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.05,0.05,0.18,0.01,0.08,0.0,0.0,11.5,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0,19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33</t>
+  </si>
+  <si>
+    <t>26.0,5.15,0.81,0.62,1.3,0.5,12.91,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.08,0.19,0.04,0.04,0.15,0.04,0.08,0.14,0.14,4.56,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>24.0,4.92,1.12,0.94,1.2,0.67,9.89,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.17,0.04,0.18,0.06,0.06,0.17,0.01,0.08,0.0,0.0,6.87,35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0</t>
+  </si>
+  <si>
+    <t>17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4,14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,44.0,4.77,0.68,0.31,2.19,1.0,10.04,0.0,0.05,2.0,0,0,0.0,0.0,0.0,0.07,0.02,0.3,0.05,0.05,0.14,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14,11.2,5.02,0.87,1.56,0.56,0.0,9.91,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.23,0.05,0.05,0.11,0.04,0.0,0.0,0.0,10.92</t>
+  </si>
+  <si>
+    <t>12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83,36.0,4.89,0.56,0.31,1.79,2.0,10.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.06,0.06,0.28,0.06,0.06,0.08,0.0,0.0,0.0,0.0,22.0</t>
+  </si>
+  <si>
+    <t>29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>23.5,4.98,0.73,0.62,1.17,0.5,11.02,0.0,0.04,1.0,0,0,0.0,0.06,0.0,0.19,0.04,0.15,0.06,0.06,0.13,0.0,0.0,0.0,0.0,7.6,16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23</t>
+  </si>
+  <si>
+    <t>22.33,5.19,1.04,0.94,1.11,0.33,12.1,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.04,0.25,0.06,0.06,0.09,0.03,0.08,0.0,0.0,5.47,29.5,4.78,0.92,0.62,1.47,2.5,10.5,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.05,0.05,0.1,0.0,0.0,0.0,0.0,10.67</t>
+  </si>
+  <si>
+    <t>6.25,5.56,0.39,1.25,0.31,0.25,10.75,0.0,0.12,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.16,0.08,0.08,0.08,0.0,0.0,0.0,0.0,5.0,14.0,5.0,0.87,1.25,0.7,0.25,10.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.09,0.27,0.09,0.09,0.13,0.04,0.08,0.0,0.0,5.9</t>
+  </si>
+  <si>
+    <t>16.75,5.06,1.04,1.25,0.83,0.5,11.31,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.1,0.04,0.28,0.04,0.04,0.09,0.0,0.0,0.14,0.14,10.23,18.5,5.32,1.15,1.25,0.92,0.0,12.56,0.0,0.03,0.75,0,0,0.0,0.0,0.0,0.15,0.03,0.28,0.07,0.07,0.15,0.01,0.08,0.14,0.14,5.83</t>
+  </si>
+  <si>
+    <t>19.33,5.29,0.9,0.94,0.96,0.33,13.18,0.0,0.05,1.0,0,0,0.0,0.02,33.33,0.12,0.07,0.22,0.07,0.07,0.09,0.02,0.08,0.0,0.0,6.33,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>25.0,4.9,1.55,1.25,1.25,1.0,11.36,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.12,0.03,0.21,0.05,0.05,0.19,0.0,0.0,0.0,0.0,8.5,12.5,5.3,0.78,1.25,0.62,0.25,11.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.22,0.06,0.06,0.16,0.0,0.0,0.0,0.0,8.83</t>
+  </si>
+  <si>
+    <t>27.0,5.02,1.26,0.94,1.35,2.0,11.39,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.19,0.07,0.07,0.16,0.0,0.0,0.0,0.0,7.5,24.33,4.95,1.13,0.94,1.21,0.33,11.74,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.15,0.05,0.05,0.12,0.01,0.0,0.14,0.14,6.24</t>
+  </si>
+  <si>
+    <t>35.0,5.17,0.54,0.31,1.74,0.0,13.26,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.2,0.11,0.23,0.0,0.0,0.06,0.03,0.08,0.0,0.0,7.89,17.0,5.07,1.06,1.25,0.85,0.25,11.77,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.26,0.04,0.04,0.15,0.0,0.0,0.0,0.0,7.4</t>
+  </si>
+  <si>
+    <t>18.5,4.88,1.15,1.25,0.92,0.0,10.97,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.03,0.3,0.04,0.04,0.15,0.0,0.0,0.0,0.0,9.27,15.5,5.26,1.45,1.87,0.77,0.83,11.94,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.2,0.08,0.08,0.17,0.01,0.0,0.0,0.0,8.14</t>
   </si>
   <si>
     <t>preffer</t>
@@ -2583,10 +2583,10 @@
     <t>ife easier.</t>
   </si>
   <si>
-    <t>287,0.0,7.99,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0,212,1.0,12.44,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>382,0.67,10.21,0.0,0.06,1.67,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,553,0.5,11.88,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.04,0.0</t>
+    <t>12.4,4.63,0.96,1.56,0.62,0.0,7.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.0,0.26,0.03,0.03,0.21,0.0,0.0,0.0,0.0,16.09,21.0,5.05,0.65,0.62,1.05,1.0,12.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.19,0.0,0.0,0.12,0.07,0.0,0.0,0.0,10.89</t>
+  </si>
+  <si>
+    <t>26.33,4.84,1.23,0.94,1.31,0.67,10.21,0.0,0.06,1.67,0,0,0.0,0.0,0.0,0.13,0.05,0.22,0.11,0.11,0.13,0.0,0.0,0.0,0.0,6.42,27.5,5.03,1.71,1.25,1.37,0.5,11.88,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.11,0.03,0.21,0.05,0.05,0.15,0.02,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>e, for</t>
